--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Tai lieu\Cấu trúc dữ liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92639ce43a2ddc00/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FC12B2-7D50-437D-B240-FCA065C518D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{B43BB352-3DEF-46ED-B390-E75126EF249F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6662826-6C57-4A41-8CA9-FFEC028EAFEF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Nguyễn Đức Tính</t>
   </si>
   <si>
-    <t>Nguyễn Văn Trung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tìm hiểu về đồ án </t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu về phương pháp Merge sort </t>
-  </si>
-  <si>
-    <t>Tổng hợp, góp ý với nhau về những gì tìm hiểu</t>
-  </si>
-  <si>
-    <t>Thống nhất những gì cần để làm đồ án</t>
   </si>
   <si>
     <t>Viết code cho đồ án</t>
@@ -77,12 +68,6 @@
   </si>
   <si>
     <t>Viết báo cáo đồ án</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉnh sửa lỗi, góp ý với nhau về code </t>
-  </si>
-  <si>
-    <t>Thống nhất code cho đồ án</t>
   </si>
   <si>
     <t>Làm powerpoint thuyết trình</t>
@@ -126,13 +111,50 @@
   <si>
     <t>13/9/2019</t>
   </si>
+  <si>
+    <t>20/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>Thuyết trình</t>
+  </si>
+  <si>
+    <t>14/12/2019</t>
+  </si>
+  <si>
+    <t>Tổng hợp về những gì tìm hiểu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh sửa lỗi về code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh sửa lỗi  về code </t>
+  </si>
+  <si>
+    <t>27/11/2019</t>
+  </si>
+  <si>
+    <t>22/11/2019</t>
+  </si>
+  <si>
+    <t>25/11/2019</t>
+  </si>
+  <si>
+    <t>Quyết định những gì cần để làm đồ án</t>
+  </si>
+  <si>
+    <t>Quyết định code cho đồ án</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -189,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -235,6 +257,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,15 +609,17 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="23" width="8.7109375" style="2" customWidth="1"/>
     <col min="24" max="16384" width="14.42578125" style="2"/>
   </cols>
@@ -634,21 +661,19 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -667,11 +692,11 @@
     </row>
     <row r="3" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -694,13 +719,13 @@
     </row>
     <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
+      <c r="D4" s="18">
+        <v>43655</v>
       </c>
       <c r="E4" s="7">
         <v>43655</v>
@@ -711,9 +736,7 @@
       <c r="G4" s="7">
         <v>43655</v>
       </c>
-      <c r="H4" s="7">
-        <v>43655</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -732,13 +755,13 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
+      <c r="D5" s="7">
+        <v>43655</v>
       </c>
       <c r="E5" s="7">
         <v>43655</v>
@@ -749,9 +772,7 @@
       <c r="G5" s="7">
         <v>43655</v>
       </c>
-      <c r="H5" s="7">
-        <v>43655</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -770,26 +791,24 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
+      <c r="D6" s="7">
+        <v>43747</v>
       </c>
       <c r="E6" s="7">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="F6" s="7">
         <v>43778</v>
       </c>
       <c r="G6" s="7">
-        <v>43778</v>
-      </c>
-      <c r="H6" s="7">
         <v>43808</v>
       </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -808,26 +827,24 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
+      <c r="D7" s="7">
+        <v>43778</v>
       </c>
       <c r="E7" s="7">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="F7" s="7">
         <v>43808</v>
       </c>
-      <c r="G7" s="7">
-        <v>43808</v>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -846,11 +863,11 @@
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -873,24 +890,24 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -909,26 +926,24 @@
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -947,24 +962,24 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -983,26 +998,24 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>6</v>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
+      <c r="F12" s="7">
+        <v>43475</v>
       </c>
       <c r="G12" s="7">
         <v>43475</v>
       </c>
-      <c r="H12" s="7">
-        <v>43475</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1021,26 +1034,24 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
+      <c r="F13" s="7">
+        <v>43506</v>
       </c>
       <c r="G13" s="7">
         <v>43506</v>
       </c>
-      <c r="H13" s="7">
-        <v>43506</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1059,16 +1070,24 @@
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43476</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43688</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1088,16 +1107,24 @@
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7">
+        <v>43477</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1116,12 +1143,25 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43477</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43477</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -20860,6 +20900,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>